--- a/otmm_decimal/result_colab/result_existing_1000_1.0_6_40_ColabPP/b_1000_1.0_6_40.xlsx
+++ b/otmm_decimal/result_colab/result_existing_1000_1.0_6_40_ColabPP/b_1000_1.0_6_40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_existing_1000_1.0_6_40_ColabPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C0994-9E89-4611-97F2-F3CFA5E3A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA07A6F-3827-4916-8484-2633B7F9D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b_1000_1.0_6_40" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>6dGul</t>
   </si>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>Xylf</t>
+  </si>
+  <si>
+    <t>Neu5Ac</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Neu5Gc</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1109,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2088,7 +2096,7 @@
         <v>31</v>
       </c>
       <c r="AH9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s">
         <v>33</v>
@@ -2097,7 +2105,7 @@
         <v>34</v>
       </c>
       <c r="AK9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s">
         <v>36</v>
